--- a/biology/Médecine/Urinal/Urinal.xlsx
+++ b/biology/Médecine/Urinal/Urinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En milieu hospitalier, l’urinal est l'équivalent du bassin de lit pour la miction. Il est parfois appelé familièrement pistolet.
 Le matula est un urinal de verre utilisé au Moyen Âge pour l'examen visuel des urines.
-Au Moyen Âge, l'urine est recueillie après le sommeil du patient dans ce flacon à base ronde pour que s’y déposent les sédiments, l'uroscopie (examen des urines à des fins de diagnostic médical) prenant principalement en compte les critères de la couleur, la substance, la quantité et les choses contenues dans l'échantillon urinaire[1].
+Au Moyen Âge, l'urine est recueillie après le sommeil du patient dans ce flacon à base ronde pour que s’y déposent les sédiments, l'uroscopie (examen des urines à des fins de diagnostic médical) prenant principalement en compte les critères de la couleur, la substance, la quantité et les choses contenues dans l'échantillon urinaire.
 </t>
         </is>
       </c>
